--- a/notebooks/google_merch_store/data/df_merch_values_encoded.xlsx
+++ b/notebooks/google_merch_store/data/df_merch_values_encoded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Coding\Python\ist_dash_2024_rec\notebooks\google_merch_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029AEEA1-567B-40FF-A7AF-B3D0B0E5541F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377BD9C1-FD27-4EB6-9D36-194D36289F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-3770" windowWidth="38620" windowHeight="21100" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event_name" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,18 @@
     <sheet name="page_path_level_1" sheetId="13" r:id="rId13"/>
     <sheet name="page_path_level_2" sheetId="14" r:id="rId14"/>
     <sheet name="page_path_level_3" sheetId="15" r:id="rId15"/>
+    <sheet name="year" sheetId="16" r:id="rId16"/>
+    <sheet name="quarter" sheetId="17" r:id="rId17"/>
+    <sheet name="month" sheetId="18" r:id="rId18"/>
+    <sheet name="day_of_year" sheetId="19" r:id="rId19"/>
+    <sheet name="week_number" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="529">
   <si>
     <t>event_name</t>
   </si>
@@ -171,9 +176,6 @@
     <t>Microsoft - &lt;Other&gt;</t>
   </si>
   <si>
-    <t>Mozilla - &lt;Other&gt;</t>
-  </si>
-  <si>
     <t>Mozilla - Firefox</t>
   </si>
   <si>
@@ -234,45 +236,27 @@
     <t>device_operating_system_version_enc</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;Other&gt; - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Android - </t>
-  </si>
-  <si>
     <t>Android - 10</t>
   </si>
   <si>
     <t>Android - 9</t>
   </si>
   <si>
-    <t xml:space="preserve">MacOS - </t>
-  </si>
-  <si>
     <t>MacOS - 10.15</t>
   </si>
   <si>
     <t>MacOS - 11.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Web - </t>
-  </si>
-  <si>
     <t>Web - 10</t>
   </si>
   <si>
-    <t xml:space="preserve">Windows - </t>
-  </si>
-  <si>
     <t>Windows - 10</t>
   </si>
   <si>
     <t>Windows - 7</t>
   </si>
   <si>
-    <t xml:space="preserve">iOS - </t>
-  </si>
-  <si>
     <t>iOS - 14.2</t>
   </si>
   <si>
@@ -324,30 +308,18 @@
     <t>device_web_info_browser_version_enc</t>
   </si>
   <si>
-    <t>Chrome - 86</t>
-  </si>
-  <si>
     <t>Chrome - 86.0</t>
   </si>
   <si>
-    <t>Chrome - 87</t>
-  </si>
-  <si>
     <t>Chrome - 87.0</t>
   </si>
   <si>
-    <t>Chrome - &lt;Other&gt;</t>
-  </si>
-  <si>
     <t>Edge - 86.0</t>
   </si>
   <si>
     <t>Edge - 87.0</t>
   </si>
   <si>
-    <t>Edge - &lt;Other&gt;</t>
-  </si>
-  <si>
     <t>Firefox - 82.0</t>
   </si>
   <si>
@@ -357,9 +329,6 @@
     <t>Firefox - 84.0</t>
   </si>
   <si>
-    <t>Firefox - &lt;Other&gt;</t>
-  </si>
-  <si>
     <t>Safari - 13.0</t>
   </si>
   <si>
@@ -372,12 +341,6 @@
     <t>Safari - 14.1</t>
   </si>
   <si>
-    <t>Safari - 604</t>
-  </si>
-  <si>
-    <t>Safari - &lt;Other&gt;</t>
-  </si>
-  <si>
     <t>geo_country</t>
   </si>
   <si>
@@ -426,9 +389,6 @@
     <t>page_path_level_1_enc</t>
   </si>
   <si>
-    <t>apparel | google merchandise store</t>
-  </si>
-  <si>
     <t>black lives matter | google merchandise store</t>
   </si>
   <si>
@@ -441,9 +401,6 @@
     <t>checkout your information</t>
   </si>
   <si>
-    <t>clearance</t>
-  </si>
-  <si>
     <t>google greenesign</t>
   </si>
   <si>
@@ -501,21 +458,18 @@
     <t>&lt;NA&gt;/google redesign</t>
   </si>
   <si>
-    <t>clearance/clearance-accessories</t>
-  </si>
-  <si>
     <t>google greenesign/apparel</t>
   </si>
   <si>
-    <t>google redesign/5k run</t>
-  </si>
-  <si>
     <t>google redesign/accessories</t>
   </si>
   <si>
     <t>google redesign/apparel</t>
   </si>
   <si>
+    <t>google redesign/apparelgoogle beekeepers onesie pink</t>
+  </si>
+  <si>
     <t>google redesign/apparelgoogle beekeepers tee mint</t>
   </si>
   <si>
@@ -621,10 +575,40 @@
     <t>&lt;NA&gt;/google redesign/office</t>
   </si>
   <si>
-    <t>google greenesign/apparel/other</t>
-  </si>
-  <si>
-    <t>google redesign/5k run/other</t>
+    <t>google greenesign/apparel/google tee green</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/android iconic pin</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/android large removable sticker sheet</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/android puzzlebot v2</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/android sm sticker sheet</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/android super hero 3d framed art</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/android techie 3d framed art</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/fun</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google blue yoyo</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google bot</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google bot multicolored</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google cambridge campus lapel pin</t>
   </si>
   <si>
     <t>google redesign/accessories/google campus bike</t>
@@ -633,10 +617,112 @@
     <t>google redesign/accessories/google chrome dinosaur collectible</t>
   </si>
   <si>
+    <t>google redesign/accessories/google clear framed blue shades</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google clear framed gray shades</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google clear framed yellow shades</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google cloth pouch black</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google cork card holder</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google cork passport holder</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google cork tablet case</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google emoji magnet set</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google emoji sticker pack 2 sheet</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google felt luggage tag</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google felt strap keyring</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google inverted umbrella</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google keychain 19</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google lapel pin</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google laptop sleeve charcoal</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google lovehandle black</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google magnet</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google maps pin</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google medium pet collar blue green</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google medium pet leash blue green</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google mouse pad navy</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google mural sticker sheet</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google nyc campus lapel pin</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google nyc campus sticker</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google pride sticker</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google see no hear no set</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google sf campus lapel pin</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google small cable organizer blue</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google tech taco</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google utensil set</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/google yellow yoyo</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/iamremarkable lapel pin</t>
+  </si>
+  <si>
     <t>google redesign/accessories/noogler android figure 2019</t>
   </si>
   <si>
-    <t>google redesign/accessories/other</t>
+    <t>google redesign/accessories/snowflake android cardboard sculpture</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/youtube iconic play pin</t>
+  </si>
+  <si>
+    <t>google redesign/accessories/youtube small sticker sheet</t>
   </si>
   <si>
     <t>google redesign/apparel/android garden tee orange</t>
@@ -645,6 +731,9 @@
     <t>google redesign/apparel/android iconic beanie</t>
   </si>
   <si>
+    <t>google redesign/apparel/android iconic crew</t>
+  </si>
+  <si>
     <t>google redesign/apparel/android iconic hat green</t>
   </si>
   <si>
@@ -657,18 +746,72 @@
     <t>google redesign/apparel/android iconic sock</t>
   </si>
   <si>
+    <t>google redesign/apparel/android pocket onesie navy</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/android pocket onesie white</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/android pocket tee green</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/android pocket tee navy</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/android pocket toddler tee navy</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/android pocket toddler tee white</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/android pocket youth tee green</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/android pocket youth tee navy</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/flamingo and friends tee blue</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google austin campus unisex tee</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google austin campus zip hoodie</t>
+  </si>
+  <si>
     <t>google redesign/apparel/google badge heavyweight pullover black</t>
   </si>
   <si>
+    <t>google redesign/apparel/google black cloud zip hoodie</t>
+  </si>
+  <si>
     <t>google redesign/apparel/google black tee</t>
   </si>
   <si>
+    <t>google redesign/apparel/google boulder campus zip hoodie</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google cambridge campus unisex tee</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google cambridge campus zip hoodie</t>
+  </si>
+  <si>
     <t>google redesign/apparel/google campus bike eco tee navy</t>
   </si>
   <si>
+    <t>google redesign/apparel/google chicago campus unisex tee</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google chicago campus zip hoodie</t>
+  </si>
+  <si>
     <t>google redesign/apparel/google cotopaxi shell</t>
   </si>
   <si>
+    <t>google redesign/apparel/google crew grey</t>
+  </si>
+  <si>
     <t>google redesign/apparel/google crew socks</t>
   </si>
   <si>
@@ -684,12 +827,27 @@
     <t>google redesign/apparel/google fc longsleeve charcoal</t>
   </si>
   <si>
+    <t>google redesign/apparel/google google blue kids sunglasses</t>
+  </si>
+  <si>
     <t>google redesign/apparel/google google crew combed cotton sock</t>
   </si>
   <si>
     <t>google redesign/apparel/google google crew striped athletic sock</t>
   </si>
   <si>
+    <t>google redesign/apparel/google google kids playful tee</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google google premium sunglasses</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google google summer19 crew grey</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google grey tee</t>
+  </si>
+  <si>
     <t>google redesign/apparel/google heather green speckled tee</t>
   </si>
   <si>
@@ -699,9 +857,21 @@
     <t>google redesign/apparel/google infant charcoal onesie</t>
   </si>
   <si>
+    <t>google redesign/apparel/google infant hero onesie grey</t>
+  </si>
+  <si>
     <t>google redesign/apparel/google infant hero tee olive</t>
   </si>
   <si>
+    <t>google redesign/apparel/google kirkland campus unisex tee</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google la campus unisex tee</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google la campus zip hoodie</t>
+  </si>
+  <si>
     <t>google redesign/apparel/google land and sea cotton cap ls</t>
   </si>
   <si>
@@ -717,15 +887,69 @@
     <t>google redesign/apparel/google leather strap hat blue</t>
   </si>
   <si>
+    <t>google redesign/apparel/google mens discovery lt rain shell</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google mens microfleece jacket black</t>
+  </si>
+  <si>
     <t>google redesign/apparel/google mens puff jacket black</t>
   </si>
   <si>
+    <t>google redesign/apparel/google mens softshell moss</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google mens tech fleece grey</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google mens tech fleece vest charcoal</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google mountain view tee blue</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google mountain view tee red</t>
+  </si>
+  <si>
     <t>google redesign/apparel/google mural socks</t>
   </si>
   <si>
     <t>google redesign/apparel/google navy speckled tee</t>
   </si>
   <si>
+    <t>google redesign/apparel/google nyc campus ladies tee</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google nyc campus unisex tee</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google nyc campus zip hoodie</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google pnw campus zip hoodie</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google raincoat navy</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google red speckled tee</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google seattle campus unisex tee</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google sf campus ladies tee</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google sf campus unisex tee</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google sf campus zip hoodie</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google sherpa vest black</t>
+  </si>
+  <si>
     <t>google redesign/apparel/google sherpa zip hoodie charcoal</t>
   </si>
   <si>
@@ -738,42 +962,129 @@
     <t>google redesign/apparel/google speckled beanie navy</t>
   </si>
   <si>
+    <t>google redesign/apparel/google split seam tee olive</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google tee blue</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google tee dark blue</t>
+  </si>
+  <si>
     <t>google redesign/apparel/google tee fc black</t>
   </si>
   <si>
+    <t>google redesign/apparel/google tee mint green</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google tee red</t>
+  </si>
+  <si>
     <t>google redesign/apparel/google toddler fc tee charcoal</t>
   </si>
   <si>
     <t>google redesign/apparel/google toddler fc zip hoodie</t>
   </si>
   <si>
+    <t>google redesign/apparel/google toddler hero tee black</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google toddler hero tee olive</t>
+  </si>
+  <si>
     <t>google redesign/apparel/google toddler tee white</t>
   </si>
   <si>
+    <t>google redesign/apparel/google tonal tee coral</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google tonal tee spearmint</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google tracking hat</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google tudes recycled tee</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google twill cap charcoal</t>
+  </si>
+  <si>
     <t>google redesign/apparel/google unisex eco tee black</t>
   </si>
   <si>
+    <t>google redesign/apparel/google unisex google jumbo print tee white</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google unisex google pocket tee grey</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google unisex pride eco-tee black</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google womens black tee</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google womens discovery</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google womens eco tee black</t>
+  </si>
+  <si>
     <t>google redesign/apparel/google womens google striped ls</t>
   </si>
   <si>
     <t>google redesign/apparel/google womens grid zip up</t>
   </si>
   <si>
+    <t>google redesign/apparel/google womens kirkland pullover</t>
+  </si>
+  <si>
     <t>google redesign/apparel/google womens microfleece jacket black</t>
   </si>
   <si>
+    <t>google redesign/apparel/google womens pride eco-tee black</t>
+  </si>
+  <si>
     <t>google redesign/apparel/google womens puff jacket black</t>
   </si>
   <si>
+    <t>google redesign/apparel/google womens softshell moss</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google womens tech fleece grey</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google womens tech fleece vest charcoal</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google youth badge tee navy</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google youth badge tee olive</t>
+  </si>
+  <si>
     <t>google redesign/apparel/google youth fc longsleeve charcoal</t>
   </si>
   <si>
+    <t>google redesign/apparel/google youth fc pullover hoodie</t>
+  </si>
+  <si>
     <t>google redesign/apparel/google youth fc tee charcoal</t>
   </si>
   <si>
+    <t>google redesign/apparel/google youth fc zip hoodie</t>
+  </si>
+  <si>
     <t>google redesign/apparel/google youth hero tee grey</t>
   </si>
   <si>
+    <t>google redesign/apparel/google youth hero tee maroon</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/google youth jumbo print tee white</t>
+  </si>
+  <si>
     <t>google redesign/apparel/google zip hoodie fc</t>
   </si>
   <si>
@@ -786,55 +1097,289 @@
     <t>google redesign/apparel/iamremarkable ladies t-shirt</t>
   </si>
   <si>
-    <t>google redesign/apparel/other</t>
+    <t>google redesign/apparel/iamremarkable unisex t-shirt</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/kids</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/mens</t>
   </si>
   <si>
     <t>google redesign/apparel/socks</t>
   </si>
   <si>
+    <t>google redesign/apparel/stan and friends tee green</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/stan and friends toddler tee green</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/womens</t>
+  </si>
+  <si>
     <t>google redesign/apparel/youtube crew socks</t>
   </si>
   <si>
+    <t>google redesign/apparel/youtube favorite tee white</t>
+  </si>
+  <si>
     <t>google redesign/apparel/youtube icon hoodie black</t>
   </si>
   <si>
+    <t>google redesign/apparel/youtube icon tee charcoal</t>
+  </si>
+  <si>
     <t>google redesign/apparel/youtube icon tee grey</t>
   </si>
   <si>
     <t>google redesign/apparel/youtube leather strap hat black</t>
   </si>
   <si>
+    <t>google redesign/apparel/youtube standards zip hoodie black</t>
+  </si>
+  <si>
+    <t>google redesign/apparel/youtube transmission journal red</t>
+  </si>
+  <si>
     <t>google redesign/apparel/youtube twill cap sandwich black</t>
   </si>
   <si>
+    <t>google redesign/bags/android iconic backpack</t>
+  </si>
+  <si>
     <t>google redesign/bags/backpacks</t>
   </si>
   <si>
+    <t>google redesign/bags/essential canvas tote</t>
+  </si>
+  <si>
+    <t>google redesign/bags/google bike mini backpack</t>
+  </si>
+  <si>
     <t>google redesign/bags/google flat front bag grey</t>
   </si>
   <si>
+    <t>google redesign/bags/google google campus bike carry pouch</t>
+  </si>
+  <si>
+    <t>google redesign/bags/google google campus bike tote navy</t>
+  </si>
+  <si>
+    <t>google redesign/bags/google google confetti accessory pouch</t>
+  </si>
+  <si>
+    <t>google redesign/bags/google google striped penny pouch</t>
+  </si>
+  <si>
+    <t>google redesign/bags/google hemp tote</t>
+  </si>
+  <si>
+    <t>google redesign/bags/google incognito dopp kit v2</t>
+  </si>
+  <si>
+    <t>google redesign/bags/google incognito flap pack</t>
+  </si>
+  <si>
+    <t>google redesign/bags/google incognito laptop organizer v2</t>
+  </si>
+  <si>
+    <t>google redesign/bags/google incognito messenger bag</t>
+  </si>
+  <si>
+    <t>google redesign/bags/google incognito techpack v2</t>
+  </si>
+  <si>
     <t>google redesign/bags/google incognito zippack v2</t>
   </si>
   <si>
+    <t>google redesign/bags/google large tote white</t>
+  </si>
+  <si>
+    <t>google redesign/bags/google mesh bag blue</t>
+  </si>
+  <si>
+    <t>google redesign/bags/google mural tote</t>
+  </si>
+  <si>
+    <t>google redesign/bags/google packable bag black</t>
+  </si>
+  <si>
+    <t>google redesign/bags/google seaport tote</t>
+  </si>
+  <si>
+    <t>google redesign/bags/google sf campus tote</t>
+  </si>
+  <si>
+    <t>google redesign/bags/google totepak</t>
+  </si>
+  <si>
     <t>google redesign/bags/google utility backpack</t>
   </si>
   <si>
-    <t>google redesign/bags/other</t>
-  </si>
-  <si>
-    <t>google redesign/campus collection/other</t>
+    <t>google redesign/bags/google utility bag grey</t>
+  </si>
+  <si>
+    <t>google redesign/bags/iamremarkable tote</t>
+  </si>
+  <si>
+    <t>google redesign/bags/more bags</t>
+  </si>
+  <si>
+    <t>google redesign/bags/shopping and totes</t>
+  </si>
+  <si>
+    <t>google redesign/bags/supernatural paper backpack</t>
+  </si>
+  <si>
+    <t>google redesign/bags/supernatural paper lunch sack</t>
+  </si>
+  <si>
+    <t>google redesign/bags/supernatural paper tote</t>
+  </si>
+  <si>
+    <t>google redesign/campus collection/google mountain view campus mug</t>
+  </si>
+  <si>
+    <t>google redesign/campus collection/google mountain view campus sticker</t>
+  </si>
+  <si>
+    <t>google redesign/campus collection/google mountain view campus unisex tee</t>
+  </si>
+  <si>
+    <t>google redesign/campus collection/google mountain view campus zip hoodie</t>
+  </si>
+  <si>
+    <t>google redesign/campus collection/google sunnyvale campus bottle</t>
+  </si>
+  <si>
+    <t>google redesign/campus collection/google sunnyvale campus ladies tee</t>
+  </si>
+  <si>
+    <t>google redesign/campus collection/google sunnyvale campus mug</t>
+  </si>
+  <si>
+    <t>google redesign/campus collection/google sunnyvale campus unisex tee</t>
+  </si>
+  <si>
+    <t>google redesign/campus collection/google sunnyvale campus zip hoodie</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/android buoy bottle</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/android iconic glass bottle green</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/android iconic mug gray</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/campus corkbase mug blue</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google 16oz tumbler blue</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google 24oz ring bottle blue</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google 24oz ring bottle red</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google austin campus mug</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google bike bottle</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google bottle cleaner</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google cambridge campus mug</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google camp mug ivory</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google canteen bottle black</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google chicago campus mug</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google cork base tumbler</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google cup cap tumbler grey</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google glass bottle</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google keepcup</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google la campus mug</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google mural bottle</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google mural mug</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google nyc campus bottle</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google nyc campus mug</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google perk thermal cup</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google sf campus bottle</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google sf campus mug</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google super g tumbler blue lid</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google super g tumbler red lid</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google thermal tumbler navy</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/google woodtop bottle black</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/iamremarkable water bottle</t>
   </si>
   <si>
     <t>google redesign/drinkware/mugs tumblers</t>
   </si>
   <si>
-    <t>google redesign/drinkware/other</t>
+    <t>google redesign/drinkware/stainless bent straw and cleaner</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/stainless straight straw and cleaner</t>
   </si>
   <si>
     <t>google redesign/drinkware/water bottles</t>
   </si>
   <si>
-    <t>google redesign/electronics/other</t>
+    <t>google redesign/drinkware/youtube 25oz gear cap bottle black</t>
+  </si>
+  <si>
+    <t>google redesign/drinkware/youtube play mug</t>
+  </si>
+  <si>
+    <t>google redesign/electronics/accessories</t>
+  </si>
+  <si>
+    <t>google redesign/electronics/audio</t>
   </si>
   <si>
     <t>google redesign/lifestyle/bags</t>
@@ -843,25 +1388,142 @@
     <t>google redesign/lifestyle/drinkware</t>
   </si>
   <si>
+    <t>google redesign/lifestyle/fun</t>
+  </si>
+  <si>
+    <t>google redesign/lifestyle/google aluminum bottle red</t>
+  </si>
+  <si>
     <t>google redesign/lifestyle/google bear baby blanket beige</t>
   </si>
   <si>
+    <t>google redesign/lifestyle/google camp mug gray</t>
+  </si>
+  <si>
+    <t>google redesign/lifestyle/google knit blanket</t>
+  </si>
+  <si>
     <t>google redesign/lifestyle/google land and sea nalgene water bottle ls</t>
   </si>
   <si>
     <t>google redesign/lifestyle/google land and sea tote bag</t>
   </si>
   <si>
-    <t>google redesign/lifestyle/other</t>
+    <t>google redesign/lifestyle/google-frisbee</t>
   </si>
   <si>
     <t>google redesign/lifestyle/small goods</t>
   </si>
   <si>
-    <t>google redesign/notebooks journals/other</t>
-  </si>
-  <si>
-    <t>google redesign/office/other</t>
+    <t>google redesign/lifestyle/white google shoreline bottle</t>
+  </si>
+  <si>
+    <t>google redesign/notebooks journals/google large standard journal grey</t>
+  </si>
+  <si>
+    <t>google redesign/office/android iconic notebook</t>
+  </si>
+  <si>
+    <t>google redesign/office/android large trace journal black</t>
+  </si>
+  <si>
+    <t>google redesign/office/android small trace journal bl</t>
+  </si>
+  <si>
+    <t>google redesign/office/google appeel journal red</t>
+  </si>
+  <si>
+    <t>google redesign/office/google black cork journal</t>
+  </si>
+  <si>
+    <t>google redesign/office/google clear pen 4pack</t>
+  </si>
+  <si>
+    <t>google redesign/office/google cork journal</t>
+  </si>
+  <si>
+    <t>google redesign/office/google cork pencil pouch</t>
+  </si>
+  <si>
+    <t>google redesign/office/google felt refillable journal</t>
+  </si>
+  <si>
+    <t>google redesign/office/google google campus bike grid task pad</t>
+  </si>
+  <si>
+    <t>google redesign/office/google google color block notebook</t>
+  </si>
+  <si>
+    <t>google redesign/office/google google confetti pen white</t>
+  </si>
+  <si>
+    <t>google redesign/office/google google confetti slim task pad</t>
+  </si>
+  <si>
+    <t>google redesign/office/google google confetti task pad</t>
+  </si>
+  <si>
+    <t>google redesign/office/google light up pen blue</t>
+  </si>
+  <si>
+    <t>google redesign/office/google light up pen green</t>
+  </si>
+  <si>
+    <t>google redesign/office/google light up pen red</t>
+  </si>
+  <si>
+    <t>google redesign/office/google mural notebook</t>
+  </si>
+  <si>
+    <t>google redesign/office/google mural sticky note pad</t>
+  </si>
+  <si>
+    <t>google redesign/office/google pen neon coral</t>
+  </si>
+  <si>
+    <t>google redesign/office/google pen red</t>
+  </si>
+  <si>
+    <t>google redesign/office/google pen white</t>
+  </si>
+  <si>
+    <t>google redesign/office/google phone stand bamboo</t>
+  </si>
+  <si>
+    <t>google redesign/office/google recycled notebook set natural</t>
+  </si>
+  <si>
+    <t>google redesign/office/google recycled pen black</t>
+  </si>
+  <si>
+    <t>google redesign/office/google recycled pen green</t>
+  </si>
+  <si>
+    <t>google redesign/office/google recycled writing set</t>
+  </si>
+  <si>
+    <t>google redesign/office/google small standard journal navy</t>
+  </si>
+  <si>
+    <t>google redesign/office/google soft modal scarf</t>
+  </si>
+  <si>
+    <t>google redesign/office/google sustainable pencil pouch</t>
+  </si>
+  <si>
+    <t>google redesign/office/iamremarkable journal</t>
+  </si>
+  <si>
+    <t>google redesign/office/iamremarkable pen</t>
+  </si>
+  <si>
+    <t>google redesign/office/notebooks journals</t>
+  </si>
+  <si>
+    <t>google redesign/office/stickers</t>
+  </si>
+  <si>
+    <t>google redesign/office/writing</t>
   </si>
   <si>
     <t>google redesign/shop by brand/android</t>
@@ -879,7 +1541,22 @@
     <t>google redesign/shop by brand/youtube</t>
   </si>
   <si>
-    <t>google redesign/small goods/other</t>
+    <t>google redesign/small goods/daddy works at google book</t>
+  </si>
+  <si>
+    <t>google redesign/small goods/mommy works at google book</t>
+  </si>
+  <si>
+    <t>google redesign/stationery/android jotter task pad</t>
+  </si>
+  <si>
+    <t>google redesign/stationery/google 4in decal</t>
+  </si>
+  <si>
+    <t>google redesign/stationery/google cloud pen</t>
+  </si>
+  <si>
+    <t>google redesign/stationery/google jotter task pad</t>
   </si>
   <si>
     <t>google redesign/stationery/google land and sea journal set</t>
@@ -888,16 +1565,67 @@
     <t>google redesign/stationery/notebooks</t>
   </si>
   <si>
-    <t>google redesign/stationery/other</t>
-  </si>
-  <si>
-    <t>google redesign/wearables/other</t>
+    <t>google redesign/stationery/stickers</t>
+  </si>
+  <si>
+    <t>google redesign/stationery/writing</t>
+  </si>
+  <si>
+    <t>google redesign/stationery/youtube jotter task pad</t>
+  </si>
+  <si>
+    <t>google redesign/wearables/men s t-shirts</t>
   </si>
   <si>
     <t>google rmg redesign/lifestyle/mural food container</t>
   </si>
   <si>
-    <t>google yellowesign/apparel/other</t>
+    <t>google yellowesign/apparel/google tee yellow</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>year_enc</t>
+  </si>
+  <si>
+    <t>quarter</t>
+  </si>
+  <si>
+    <t>quarter_enc</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>month_enc</t>
+  </si>
+  <si>
+    <t>day_of_year</t>
+  </si>
+  <si>
+    <t>day_of_year_enc</t>
+  </si>
+  <si>
+    <t>week_number</t>
+  </si>
+  <si>
+    <t>week_number_enc</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>Smartphone - &lt;Other&gt;</t>
+  </si>
+  <si>
+    <t>ChromeOS - 86.0</t>
+  </si>
+  <si>
+    <t>ChromeOS - 87.0</t>
+  </si>
+  <si>
+    <t>ChromeOS</t>
   </si>
 </sst>
 </file>
@@ -1262,14 +1990,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1393,26 +2120,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>103</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>102</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1424,41 +2162,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>106</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>108</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>107</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>109</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1470,36 +2228,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>113</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>107</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>112</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1509,128 +2281,123 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1640,293 +2407,278 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1936,708 +2688,2822 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:B138"/>
+  <dimension ref="A1:B381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:B94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>520</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>194</v>
+      <c r="A2">
+        <v>305</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>130</v>
+      <c r="A3">
+        <v>306</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>131</v>
+      <c r="A4">
+        <v>307</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>132</v>
+      <c r="A5">
+        <v>308</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>133</v>
+      <c r="A6">
+        <v>309</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>134</v>
+      <c r="A7">
+        <v>310</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>155</v>
+      <c r="A8">
+        <v>311</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>195</v>
+      <c r="A9">
+        <v>312</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>137</v>
+      <c r="A10">
+        <v>313</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>138</v>
+      <c r="A11">
+        <v>314</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>139</v>
+      <c r="A12">
+        <v>315</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>196</v>
+      <c r="A13">
+        <v>316</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>158</v>
+      <c r="A14">
+        <v>317</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>197</v>
+      <c r="A15">
+        <v>318</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>151</v>
+      <c r="A16">
+        <v>319</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>320</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>321</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>322</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>323</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>324</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>325</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>326</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>327</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>328</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>329</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>330</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>331</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>332</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>333</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>334</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>335</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>336</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>337</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>338</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>339</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>340</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>341</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>342</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>343</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>344</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>345</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>346</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>347</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>348</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>349</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>350</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>351</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>352</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>353</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>354</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>355</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>356</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>357</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>358</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>359</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>360</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>361</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>362</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>363</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>364</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>365</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>366</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>7</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>10</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>11</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>12</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>13</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>14</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>15</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>16</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>17</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>18</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>19</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>20</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>21</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>22</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>23</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>24</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>25</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>26</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>27</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>28</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>29</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>30</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>31</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2649,15 +5515,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2689,6 +5551,141 @@
       </c>
       <c r="B4">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2698,16 +5695,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2722,45 +5719,80 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>524</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2772,14 +5804,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2794,100 +5825,160 @@
       <c r="A2" t="s">
         <v>33</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>525</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2899,63 +5990,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2965,95 +6083,112 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P51" sqref="P51"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>80</v>
+      <c r="B12">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3063,48 +6198,76 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>528</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>77</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3116,41 +6279,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>84</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>83</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>86</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>85</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3160,113 +6340,119 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="36.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>91</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>92</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>89</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>99</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>93</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>94</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>113</v>
+        <v>95</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/google_merch_store/data/df_merch_values_encoded.xlsx
+++ b/notebooks/google_merch_store/data/df_merch_values_encoded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Coding\Python\ist_dash_2024_rec\notebooks\google_merch_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377BD9C1-FD27-4EB6-9D36-194D36289F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D731D5-9719-4A50-B7D1-6408EDA474DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="1350" windowWidth="39435" windowHeight="18165" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event_name" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,22 @@
     <sheet name="geo_country" sheetId="10" r:id="rId10"/>
     <sheet name="traffic_source_medium" sheetId="11" r:id="rId11"/>
     <sheet name="traffic_source_source" sheetId="12" r:id="rId12"/>
-    <sheet name="page_path_level_1" sheetId="13" r:id="rId13"/>
-    <sheet name="page_path_level_2" sheetId="14" r:id="rId14"/>
-    <sheet name="page_path_level_3" sheetId="15" r:id="rId15"/>
-    <sheet name="year" sheetId="16" r:id="rId16"/>
-    <sheet name="quarter" sheetId="17" r:id="rId17"/>
-    <sheet name="month" sheetId="18" r:id="rId18"/>
-    <sheet name="day_of_year" sheetId="19" r:id="rId19"/>
-    <sheet name="week_number" sheetId="20" r:id="rId20"/>
+    <sheet name="domain" sheetId="21" r:id="rId13"/>
+    <sheet name="page_path_level_1" sheetId="13" r:id="rId14"/>
+    <sheet name="page_path_level_2" sheetId="14" r:id="rId15"/>
+    <sheet name="page_path_level_3" sheetId="15" r:id="rId16"/>
+    <sheet name="year" sheetId="16" r:id="rId17"/>
+    <sheet name="quarter" sheetId="17" r:id="rId18"/>
+    <sheet name="month" sheetId="18" r:id="rId19"/>
+    <sheet name="day_of_year" sheetId="19" r:id="rId20"/>
+    <sheet name="week_number" sheetId="20" r:id="rId21"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="533">
   <si>
     <t>event_name</t>
   </si>
@@ -1626,6 +1627,18 @@
   </si>
   <si>
     <t>ChromeOS</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>domain_enc</t>
+  </si>
+  <si>
+    <t>googlemerchandisestore.com</t>
+  </si>
+  <si>
+    <t>shop.googlemerchandisestore.com</t>
   </si>
 </sst>
 </file>
@@ -1991,7 +2004,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,7 +2102,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2097,7 +2110,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2163,7 +2176,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2280,11 +2293,50 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E587B5-4742-4885-AC8D-E51D7A667EE0}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,385 +2352,164 @@
         <v>115</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>125</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>126</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>123</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>130</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>127</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:B53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>144</v>
+      <c r="B15">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2687,1919 +2518,440 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:B381"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>116</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>145</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>139</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>169</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>138</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>141</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>142</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>143</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>166</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>154</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>155</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>167</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>140</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>144</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="B50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="B51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>135</v>
+      <c r="B53">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -4608,6 +2960,3072 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:B381"/>
+  <sheetViews>
+    <sheetView topLeftCell="A366" workbookViewId="0">
+      <selection activeCell="E385" sqref="E385"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>246</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>250</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>252</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>256</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>258</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>259</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>261</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>262</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>263</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>264</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>265</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>266</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>267</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>268</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>269</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>270</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>271</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>272</v>
+      </c>
+      <c r="B50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>273</v>
+      </c>
+      <c r="B51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>274</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>275</v>
+      </c>
+      <c r="B53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>276</v>
+      </c>
+      <c r="B54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>277</v>
+      </c>
+      <c r="B55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>278</v>
+      </c>
+      <c r="B56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>279</v>
+      </c>
+      <c r="B57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>280</v>
+      </c>
+      <c r="B58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>281</v>
+      </c>
+      <c r="B59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>282</v>
+      </c>
+      <c r="B60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>283</v>
+      </c>
+      <c r="B61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>284</v>
+      </c>
+      <c r="B62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>285</v>
+      </c>
+      <c r="B63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>286</v>
+      </c>
+      <c r="B64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>287</v>
+      </c>
+      <c r="B65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>288</v>
+      </c>
+      <c r="B66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>289</v>
+      </c>
+      <c r="B67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>290</v>
+      </c>
+      <c r="B68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>291</v>
+      </c>
+      <c r="B69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>292</v>
+      </c>
+      <c r="B70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>293</v>
+      </c>
+      <c r="B71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>294</v>
+      </c>
+      <c r="B72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>295</v>
+      </c>
+      <c r="B73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>296</v>
+      </c>
+      <c r="B74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>297</v>
+      </c>
+      <c r="B75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>298</v>
+      </c>
+      <c r="B76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>299</v>
+      </c>
+      <c r="B77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>300</v>
+      </c>
+      <c r="B78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>301</v>
+      </c>
+      <c r="B79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>302</v>
+      </c>
+      <c r="B80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>303</v>
+      </c>
+      <c r="B81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>304</v>
+      </c>
+      <c r="B82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>305</v>
+      </c>
+      <c r="B83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>306</v>
+      </c>
+      <c r="B84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>307</v>
+      </c>
+      <c r="B85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>308</v>
+      </c>
+      <c r="B86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>309</v>
+      </c>
+      <c r="B87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>310</v>
+      </c>
+      <c r="B88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>311</v>
+      </c>
+      <c r="B89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>312</v>
+      </c>
+      <c r="B90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>313</v>
+      </c>
+      <c r="B91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>314</v>
+      </c>
+      <c r="B92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>315</v>
+      </c>
+      <c r="B93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>316</v>
+      </c>
+      <c r="B94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>317</v>
+      </c>
+      <c r="B95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>318</v>
+      </c>
+      <c r="B96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>319</v>
+      </c>
+      <c r="B97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>320</v>
+      </c>
+      <c r="B98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>321</v>
+      </c>
+      <c r="B99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>322</v>
+      </c>
+      <c r="B100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>323</v>
+      </c>
+      <c r="B101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>324</v>
+      </c>
+      <c r="B102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>325</v>
+      </c>
+      <c r="B103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>326</v>
+      </c>
+      <c r="B104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>327</v>
+      </c>
+      <c r="B105">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>328</v>
+      </c>
+      <c r="B106">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>329</v>
+      </c>
+      <c r="B107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>330</v>
+      </c>
+      <c r="B108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>331</v>
+      </c>
+      <c r="B109">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>332</v>
+      </c>
+      <c r="B110">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>333</v>
+      </c>
+      <c r="B111">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>334</v>
+      </c>
+      <c r="B112">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>335</v>
+      </c>
+      <c r="B113">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>336</v>
+      </c>
+      <c r="B114">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>337</v>
+      </c>
+      <c r="B115">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>338</v>
+      </c>
+      <c r="B116">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>339</v>
+      </c>
+      <c r="B117">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>340</v>
+      </c>
+      <c r="B118">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>341</v>
+      </c>
+      <c r="B119">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>342</v>
+      </c>
+      <c r="B120">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>343</v>
+      </c>
+      <c r="B121">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>344</v>
+      </c>
+      <c r="B122">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>345</v>
+      </c>
+      <c r="B123">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>346</v>
+      </c>
+      <c r="B124">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>347</v>
+      </c>
+      <c r="B125">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>348</v>
+      </c>
+      <c r="B126">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>349</v>
+      </c>
+      <c r="B127">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>350</v>
+      </c>
+      <c r="B128">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>351</v>
+      </c>
+      <c r="B129">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>352</v>
+      </c>
+      <c r="B130">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>353</v>
+      </c>
+      <c r="B131">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>354</v>
+      </c>
+      <c r="B132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>355</v>
+      </c>
+      <c r="B133">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>356</v>
+      </c>
+      <c r="B134">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>357</v>
+      </c>
+      <c r="B135">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>358</v>
+      </c>
+      <c r="B136">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>359</v>
+      </c>
+      <c r="B137">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>360</v>
+      </c>
+      <c r="B138">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>361</v>
+      </c>
+      <c r="B139">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>362</v>
+      </c>
+      <c r="B140">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>363</v>
+      </c>
+      <c r="B141">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>364</v>
+      </c>
+      <c r="B142">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>365</v>
+      </c>
+      <c r="B143">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>366</v>
+      </c>
+      <c r="B144">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>367</v>
+      </c>
+      <c r="B145">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>142</v>
+      </c>
+      <c r="B146">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>143</v>
+      </c>
+      <c r="B147">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>154</v>
+      </c>
+      <c r="B148">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>155</v>
+      </c>
+      <c r="B149">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>166</v>
+      </c>
+      <c r="B150">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>513</v>
+      </c>
+      <c r="B151">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>511</v>
+      </c>
+      <c r="B152">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>140</v>
+      </c>
+      <c r="B153">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>179</v>
+      </c>
+      <c r="B154">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>180</v>
+      </c>
+      <c r="B155">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>181</v>
+      </c>
+      <c r="B156">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>182</v>
+      </c>
+      <c r="B157">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>183</v>
+      </c>
+      <c r="B158">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>184</v>
+      </c>
+      <c r="B159">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>185</v>
+      </c>
+      <c r="B160">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>186</v>
+      </c>
+      <c r="B161">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>187</v>
+      </c>
+      <c r="B162">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>188</v>
+      </c>
+      <c r="B163">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>189</v>
+      </c>
+      <c r="B164">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>190</v>
+      </c>
+      <c r="B165">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>191</v>
+      </c>
+      <c r="B166">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>192</v>
+      </c>
+      <c r="B167">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>193</v>
+      </c>
+      <c r="B168">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>194</v>
+      </c>
+      <c r="B169">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>195</v>
+      </c>
+      <c r="B170">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>196</v>
+      </c>
+      <c r="B171">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>197</v>
+      </c>
+      <c r="B172">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>198</v>
+      </c>
+      <c r="B173">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>199</v>
+      </c>
+      <c r="B174">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>200</v>
+      </c>
+      <c r="B175">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>201</v>
+      </c>
+      <c r="B176">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>202</v>
+      </c>
+      <c r="B177">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>203</v>
+      </c>
+      <c r="B178">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>204</v>
+      </c>
+      <c r="B179">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>205</v>
+      </c>
+      <c r="B180">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>206</v>
+      </c>
+      <c r="B181">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>207</v>
+      </c>
+      <c r="B182">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>208</v>
+      </c>
+      <c r="B183">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>209</v>
+      </c>
+      <c r="B184">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>210</v>
+      </c>
+      <c r="B185">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>211</v>
+      </c>
+      <c r="B186">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>212</v>
+      </c>
+      <c r="B187">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>213</v>
+      </c>
+      <c r="B188">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>214</v>
+      </c>
+      <c r="B189">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>215</v>
+      </c>
+      <c r="B190">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>216</v>
+      </c>
+      <c r="B191">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>217</v>
+      </c>
+      <c r="B192">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>218</v>
+      </c>
+      <c r="B193">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>219</v>
+      </c>
+      <c r="B194">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>220</v>
+      </c>
+      <c r="B195">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>221</v>
+      </c>
+      <c r="B196">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>222</v>
+      </c>
+      <c r="B197">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>223</v>
+      </c>
+      <c r="B198">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>224</v>
+      </c>
+      <c r="B199">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>225</v>
+      </c>
+      <c r="B200">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>226</v>
+      </c>
+      <c r="B201">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>227</v>
+      </c>
+      <c r="B202">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>368</v>
+      </c>
+      <c r="B203">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>369</v>
+      </c>
+      <c r="B204">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>370</v>
+      </c>
+      <c r="B205">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>371</v>
+      </c>
+      <c r="B206">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>372</v>
+      </c>
+      <c r="B207">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>373</v>
+      </c>
+      <c r="B208">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>374</v>
+      </c>
+      <c r="B209">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>375</v>
+      </c>
+      <c r="B210">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>376</v>
+      </c>
+      <c r="B211">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>377</v>
+      </c>
+      <c r="B212">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>378</v>
+      </c>
+      <c r="B213">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>379</v>
+      </c>
+      <c r="B214">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>380</v>
+      </c>
+      <c r="B215">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>381</v>
+      </c>
+      <c r="B216">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>382</v>
+      </c>
+      <c r="B217">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>383</v>
+      </c>
+      <c r="B218">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>384</v>
+      </c>
+      <c r="B219">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>385</v>
+      </c>
+      <c r="B220">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>386</v>
+      </c>
+      <c r="B221">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>387</v>
+      </c>
+      <c r="B222">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>388</v>
+      </c>
+      <c r="B223">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>389</v>
+      </c>
+      <c r="B224">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>390</v>
+      </c>
+      <c r="B225">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>391</v>
+      </c>
+      <c r="B226">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>392</v>
+      </c>
+      <c r="B227">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>393</v>
+      </c>
+      <c r="B228">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>394</v>
+      </c>
+      <c r="B229">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>395</v>
+      </c>
+      <c r="B230">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>396</v>
+      </c>
+      <c r="B231">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>397</v>
+      </c>
+      <c r="B232">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>398</v>
+      </c>
+      <c r="B233">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>408</v>
+      </c>
+      <c r="B234">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>409</v>
+      </c>
+      <c r="B235">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>410</v>
+      </c>
+      <c r="B236">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>411</v>
+      </c>
+      <c r="B237">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>412</v>
+      </c>
+      <c r="B238">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>413</v>
+      </c>
+      <c r="B239">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>414</v>
+      </c>
+      <c r="B240">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>415</v>
+      </c>
+      <c r="B241">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>416</v>
+      </c>
+      <c r="B242">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>417</v>
+      </c>
+      <c r="B243">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>418</v>
+      </c>
+      <c r="B244">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>419</v>
+      </c>
+      <c r="B245">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>420</v>
+      </c>
+      <c r="B246">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>421</v>
+      </c>
+      <c r="B247">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>422</v>
+      </c>
+      <c r="B248">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>423</v>
+      </c>
+      <c r="B249">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>424</v>
+      </c>
+      <c r="B250">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>425</v>
+      </c>
+      <c r="B251">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>426</v>
+      </c>
+      <c r="B252">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>427</v>
+      </c>
+      <c r="B253">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>428</v>
+      </c>
+      <c r="B254">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>429</v>
+      </c>
+      <c r="B255">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>430</v>
+      </c>
+      <c r="B256">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>431</v>
+      </c>
+      <c r="B257">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>432</v>
+      </c>
+      <c r="B258">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>433</v>
+      </c>
+      <c r="B259">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>434</v>
+      </c>
+      <c r="B260">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>435</v>
+      </c>
+      <c r="B261">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>436</v>
+      </c>
+      <c r="B262">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>437</v>
+      </c>
+      <c r="B263">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>438</v>
+      </c>
+      <c r="B264">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>439</v>
+      </c>
+      <c r="B265">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>440</v>
+      </c>
+      <c r="B266">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>441</v>
+      </c>
+      <c r="B267">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>442</v>
+      </c>
+      <c r="B268">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>443</v>
+      </c>
+      <c r="B269">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>444</v>
+      </c>
+      <c r="B270">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>152</v>
+      </c>
+      <c r="B271">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>153</v>
+      </c>
+      <c r="B272">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>159</v>
+      </c>
+      <c r="B273">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>447</v>
+      </c>
+      <c r="B274">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>448</v>
+      </c>
+      <c r="B275">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>449</v>
+      </c>
+      <c r="B276">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>450</v>
+      </c>
+      <c r="B277">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>451</v>
+      </c>
+      <c r="B278">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>452</v>
+      </c>
+      <c r="B279">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>453</v>
+      </c>
+      <c r="B280">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>454</v>
+      </c>
+      <c r="B281">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>455</v>
+      </c>
+      <c r="B282">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>456</v>
+      </c>
+      <c r="B283">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>457</v>
+      </c>
+      <c r="B284">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>458</v>
+      </c>
+      <c r="B285">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>512</v>
+      </c>
+      <c r="B286">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>158</v>
+      </c>
+      <c r="B287">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>156</v>
+      </c>
+      <c r="B288">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>157</v>
+      </c>
+      <c r="B289">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>150</v>
+      </c>
+      <c r="B290">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>445</v>
+      </c>
+      <c r="B291">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>446</v>
+      </c>
+      <c r="B292">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>500</v>
+      </c>
+      <c r="B293">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>501</v>
+      </c>
+      <c r="B294">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>459</v>
+      </c>
+      <c r="B295">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>177</v>
+      </c>
+      <c r="B296">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>162</v>
+      </c>
+      <c r="B297">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>460</v>
+      </c>
+      <c r="B298">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>461</v>
+      </c>
+      <c r="B299">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>462</v>
+      </c>
+      <c r="B300">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>463</v>
+      </c>
+      <c r="B301">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>464</v>
+      </c>
+      <c r="B302">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>465</v>
+      </c>
+      <c r="B303">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>466</v>
+      </c>
+      <c r="B304">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>467</v>
+      </c>
+      <c r="B305">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>468</v>
+      </c>
+      <c r="B306">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>469</v>
+      </c>
+      <c r="B307">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>470</v>
+      </c>
+      <c r="B308">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>471</v>
+      </c>
+      <c r="B309">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>472</v>
+      </c>
+      <c r="B310">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>473</v>
+      </c>
+      <c r="B311">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>474</v>
+      </c>
+      <c r="B312">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>475</v>
+      </c>
+      <c r="B313">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>476</v>
+      </c>
+      <c r="B314">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>477</v>
+      </c>
+      <c r="B315">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>478</v>
+      </c>
+      <c r="B316">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>479</v>
+      </c>
+      <c r="B317">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>480</v>
+      </c>
+      <c r="B318">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>481</v>
+      </c>
+      <c r="B319">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>482</v>
+      </c>
+      <c r="B320">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>483</v>
+      </c>
+      <c r="B321">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>484</v>
+      </c>
+      <c r="B322">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>485</v>
+      </c>
+      <c r="B323">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>486</v>
+      </c>
+      <c r="B324">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>487</v>
+      </c>
+      <c r="B325">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>488</v>
+      </c>
+      <c r="B326">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>489</v>
+      </c>
+      <c r="B327">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>490</v>
+      </c>
+      <c r="B328">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>491</v>
+      </c>
+      <c r="B329">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>492</v>
+      </c>
+      <c r="B330">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>493</v>
+      </c>
+      <c r="B331">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>494</v>
+      </c>
+      <c r="B332">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>151</v>
+      </c>
+      <c r="B333">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>165</v>
+      </c>
+      <c r="B334">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>502</v>
+      </c>
+      <c r="B335">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>503</v>
+      </c>
+      <c r="B336">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>504</v>
+      </c>
+      <c r="B337">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>505</v>
+      </c>
+      <c r="B338">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>506</v>
+      </c>
+      <c r="B339">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>507</v>
+      </c>
+      <c r="B340">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>508</v>
+      </c>
+      <c r="B341">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>509</v>
+      </c>
+      <c r="B342">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>510</v>
+      </c>
+      <c r="B343">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>149</v>
+      </c>
+      <c r="B344">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>146</v>
+      </c>
+      <c r="B345">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>399</v>
+      </c>
+      <c r="B346">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>400</v>
+      </c>
+      <c r="B347">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>401</v>
+      </c>
+      <c r="B348">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>402</v>
+      </c>
+      <c r="B349">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>403</v>
+      </c>
+      <c r="B350">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>404</v>
+      </c>
+      <c r="B351">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>405</v>
+      </c>
+      <c r="B352">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>406</v>
+      </c>
+      <c r="B353">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>407</v>
+      </c>
+      <c r="B354">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>163</v>
+      </c>
+      <c r="B355">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>495</v>
+      </c>
+      <c r="B356">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>496</v>
+      </c>
+      <c r="B357">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>497</v>
+      </c>
+      <c r="B358">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>498</v>
+      </c>
+      <c r="B359">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>499</v>
+      </c>
+      <c r="B360">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>147</v>
+      </c>
+      <c r="B361">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>160</v>
+      </c>
+      <c r="B362">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>130</v>
+      </c>
+      <c r="B363">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>123</v>
+      </c>
+      <c r="B364">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>127</v>
+      </c>
+      <c r="B365">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>129</v>
+      </c>
+      <c r="B366">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>134</v>
+      </c>
+      <c r="B367">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>132</v>
+      </c>
+      <c r="B368">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>119</v>
+      </c>
+      <c r="B369">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>128</v>
+      </c>
+      <c r="B370">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>118</v>
+      </c>
+      <c r="B371">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>117</v>
+      </c>
+      <c r="B372">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>135</v>
+      </c>
+      <c r="B373">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>133</v>
+      </c>
+      <c r="B374">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>121</v>
+      </c>
+      <c r="B375">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>122</v>
+      </c>
+      <c r="B376">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>170</v>
+      </c>
+      <c r="B377">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>171</v>
+      </c>
+      <c r="B378">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>172</v>
+      </c>
+      <c r="B379">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>173</v>
+      </c>
+      <c r="B380">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>174</v>
+      </c>
+      <c r="B381">
+        <v>379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4646,7 +6064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4685,7 +6103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -4733,777 +6151,6 @@
       </c>
       <c r="B5">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:B94"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>305</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>306</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>307</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>308</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>309</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>310</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>311</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>312</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>313</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>314</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>315</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>316</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>317</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>318</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>319</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>320</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>321</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>322</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>323</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>324</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>325</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>326</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>327</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>328</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>329</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>330</v>
-      </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>331</v>
-      </c>
-      <c r="B28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>332</v>
-      </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>333</v>
-      </c>
-      <c r="B30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>334</v>
-      </c>
-      <c r="B31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>335</v>
-      </c>
-      <c r="B32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>336</v>
-      </c>
-      <c r="B33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>337</v>
-      </c>
-      <c r="B34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>338</v>
-      </c>
-      <c r="B35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>339</v>
-      </c>
-      <c r="B36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>340</v>
-      </c>
-      <c r="B37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>341</v>
-      </c>
-      <c r="B38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>342</v>
-      </c>
-      <c r="B39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>343</v>
-      </c>
-      <c r="B40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>344</v>
-      </c>
-      <c r="B41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>345</v>
-      </c>
-      <c r="B42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>346</v>
-      </c>
-      <c r="B43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>347</v>
-      </c>
-      <c r="B44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>348</v>
-      </c>
-      <c r="B45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>349</v>
-      </c>
-      <c r="B46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>350</v>
-      </c>
-      <c r="B47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>351</v>
-      </c>
-      <c r="B48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>352</v>
-      </c>
-      <c r="B49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>353</v>
-      </c>
-      <c r="B50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>354</v>
-      </c>
-      <c r="B51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>355</v>
-      </c>
-      <c r="B52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>356</v>
-      </c>
-      <c r="B53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>357</v>
-      </c>
-      <c r="B54">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>358</v>
-      </c>
-      <c r="B55">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>359</v>
-      </c>
-      <c r="B56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>360</v>
-      </c>
-      <c r="B57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>361</v>
-      </c>
-      <c r="B58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>362</v>
-      </c>
-      <c r="B59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>363</v>
-      </c>
-      <c r="B60">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>364</v>
-      </c>
-      <c r="B61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>365</v>
-      </c>
-      <c r="B62">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>366</v>
-      </c>
-      <c r="B63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="B64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>2</v>
-      </c>
-      <c r="B65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>3</v>
-      </c>
-      <c r="B66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>4</v>
-      </c>
-      <c r="B67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>5</v>
-      </c>
-      <c r="B68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>6</v>
-      </c>
-      <c r="B69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>7</v>
-      </c>
-      <c r="B70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>8</v>
-      </c>
-      <c r="B71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>9</v>
-      </c>
-      <c r="B72">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>10</v>
-      </c>
-      <c r="B73">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>11</v>
-      </c>
-      <c r="B74">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>12</v>
-      </c>
-      <c r="B75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>13</v>
-      </c>
-      <c r="B76">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>14</v>
-      </c>
-      <c r="B77">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>15</v>
-      </c>
-      <c r="B78">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>16</v>
-      </c>
-      <c r="B79">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>17</v>
-      </c>
-      <c r="B80">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>18</v>
-      </c>
-      <c r="B81">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>19</v>
-      </c>
-      <c r="B82">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>20</v>
-      </c>
-      <c r="B83">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>21</v>
-      </c>
-      <c r="B84">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>22</v>
-      </c>
-      <c r="B85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>23</v>
-      </c>
-      <c r="B86">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>24</v>
-      </c>
-      <c r="B87">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>25</v>
-      </c>
-      <c r="B88">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>26</v>
-      </c>
-      <c r="B89">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>27</v>
-      </c>
-      <c r="B90">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>28</v>
-      </c>
-      <c r="B91">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>29</v>
-      </c>
-      <c r="B92">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>30</v>
-      </c>
-      <c r="B93">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>31</v>
-      </c>
-      <c r="B94">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -5559,6 +6206,777 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:B94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>305</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>306</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>307</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>308</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>309</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>310</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>311</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>312</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>313</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>314</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>315</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>316</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>317</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>318</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>319</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>320</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>321</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>322</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>323</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>324</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>325</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>326</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>327</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>328</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>329</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>330</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>331</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>332</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>333</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>334</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>335</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>336</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>337</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>338</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>339</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>340</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>341</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>342</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>343</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>344</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>345</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>346</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>347</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>348</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>349</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>350</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>351</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>352</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>353</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>354</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>355</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>356</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>357</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>358</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>359</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>360</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>361</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>362</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>363</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>364</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>365</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>366</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>7</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>10</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>11</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>12</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>13</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>14</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>15</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>16</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>17</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>18</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>19</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>20</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>21</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>22</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>23</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>24</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>25</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>26</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>27</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>28</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>29</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>30</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>31</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -6342,8 +7760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/notebooks/google_merch_store/data/df_merch_values_encoded.xlsx
+++ b/notebooks/google_merch_store/data/df_merch_values_encoded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Coding\Python\ist_dash_2024_rec\notebooks\google_merch_store\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D731D5-9719-4A50-B7D1-6408EDA474DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864086E4-5510-42D7-8431-1D640D459A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="1350" windowWidth="39435" windowHeight="18165" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-3770" windowWidth="38620" windowHeight="21100" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event_name" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="534">
   <si>
     <t>event_name</t>
   </si>
@@ -1639,6 +1639,9 @@
   </si>
   <si>
     <t>shop.googlemerchandisestore.com</t>
+  </si>
+  <si>
+    <t>data deleted</t>
   </si>
 </sst>
 </file>
@@ -2173,10 +2176,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,7 +2205,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>533</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2210,7 +2213,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2226,10 +2229,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2239,10 +2250,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,7 +2276,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>533</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2273,7 +2284,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2281,10 +2292,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2296,7 +2315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E587B5-4742-4885-AC8D-E51D7A667EE0}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
